--- a/trunk/WIP/Documents/Guidelines/TaxiNet_WebServiceDesign.xlsx
+++ b/trunk/WIP/Documents/Guidelines/TaxiNet_WebServiceDesign.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\FU\Capstones\201501Spring\TaxiNet\WIP\Documents\Guidelines\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tns-project\WIP\Documents\Guidelines\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Rider" sheetId="1" r:id="rId1"/>
+    <sheet name="Driver" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="62">
   <si>
     <t>Module Name</t>
   </si>
@@ -44,9 +45,6 @@
     <t>login</t>
   </si>
   <si>
-    <t>userName</t>
-  </si>
-  <si>
     <t>String</t>
   </si>
   <si>
@@ -72,6 +70,147 @@
   </si>
   <si>
     <t>Output Params</t>
+  </si>
+  <si>
+    <t>Driver</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>responseCode</t>
+  </si>
+  <si>
+    <t>/DriverController</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>/register</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
+    <t>SUCCESS = thành công</t>
+  </si>
+  <si>
+    <t>ERROR = lỗi tài khoản</t>
+  </si>
+  <si>
+    <t>EXISTED = tài khoản đã tồn tại</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>/term/driver</t>
+  </si>
+  <si>
+    <t>getTermOfDriver</t>
+  </si>
+  <si>
+    <t>điều khoản sử dụng</t>
+  </si>
+  <si>
+    <t>/TaxiCompanyController</t>
+  </si>
+  <si>
+    <t>getListTaxiCompany</t>
+  </si>
+  <si>
+    <t>/getlisttaxicompany</t>
+  </si>
+  <si>
+    <t>getTermOfRider</t>
+  </si>
+  <si>
+    <t>/term/Rider</t>
+  </si>
+  <si>
+    <t>/TripRiderController</t>
+  </si>
+  <si>
+    <t>getChipTrip</t>
+  </si>
+  <si>
+    <t>/getChipTrip</t>
+  </si>
+  <si>
+    <t>addPayment</t>
+  </si>
+  <si>
+    <t>/addPayment</t>
+  </si>
+  <si>
+    <t>accountNumber</t>
+  </si>
+  <si>
+    <t>số tài khoản</t>
+  </si>
+  <si>
+    <t>bankName</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>Mã ngân hàng, VD 1 = agribank</t>
+  </si>
+  <si>
+    <t>/PaymentController</t>
+  </si>
+  <si>
+    <t>getNearDriver</t>
+  </si>
+  <si>
+    <t>/getNearDriver</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>kinh độ</t>
+  </si>
+  <si>
+    <t>vĩ độ</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>tên tài xế</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Ảnh tài xế</t>
+  </si>
+  <si>
+    <t>1 = gần nhất, 2 = rẻ nhất , 3 = đề cử</t>
+  </si>
+  <si>
+    <t>/PromotionController</t>
+  </si>
+  <si>
+    <t>getPromotion</t>
+  </si>
+  <si>
+    <t>/getPromotion</t>
   </si>
 </sst>
 </file>
@@ -369,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -384,14 +523,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -399,6 +538,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -681,18 +824,878 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81:D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" customWidth="1"/>
+    <col min="4" max="4" width="67.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="15"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="15"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="15"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="15"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="15"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="21"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="22"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="21"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="15"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="21"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="15"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="24"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="13"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
+      <c r="B33" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="15"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="22"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="18"/>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="21"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="15"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="21"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="15"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="24"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="13"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="21"/>
+      <c r="B44" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="21"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="15"/>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="22"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="18"/>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="21"/>
+      <c r="B51" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="21"/>
+      <c r="B52" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="24"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="13"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="21"/>
+      <c r="B55" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="21"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="22"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="18"/>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="21"/>
+      <c r="B62" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="21"/>
+      <c r="B63" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="24"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="13"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="21"/>
+      <c r="B66" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D66" s="15"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="21"/>
+      <c r="B67" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="21"/>
+      <c r="B68" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="21"/>
+      <c r="B69" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="21"/>
+      <c r="B70" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="22"/>
+      <c r="B71" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="21"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="15"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="21"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="15"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="24"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="13"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="21"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="15"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="21"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="15"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="21"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="15"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="21"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="15"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="21"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="15"/>
+    </row>
+    <row r="85" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="22"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A65:A71"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="A79:A85"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="A21:A24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -701,13 +1704,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" s="11" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -718,84 +1721,436 @@
         <v>5</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="13" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>14</v>
-      </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="16"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="16"/>
+        <v>6</v>
+      </c>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="2"/>
       <c r="C7" s="6"/>
       <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="16"/>
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="16"/>
+      <c r="B9" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="B10" s="1"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="16"/>
+      <c r="D10" s="15" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="15"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="15"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="15"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="15"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="15"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="21"/>
+      <c r="B23" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="22"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="15"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="15"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="13"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
+      <c r="B34" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="21"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="15"/>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="22"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="18"/>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="19"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="15"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="19"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="15"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="19"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="13"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="21"/>
+      <c r="B45" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="15"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="21"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="15"/>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="22"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="8">
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A47"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/trunk/WIP/Documents/Guidelines/TaxiNet_WebServiceDesign.xlsx
+++ b/trunk/WIP/Documents/Guidelines/TaxiNet_WebServiceDesign.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tns-project\WIP\Documents\Guidelines\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\WIP\Documents\Guidelines\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="81">
   <si>
     <t>Module Name</t>
   </si>
@@ -141,9 +141,6 @@
     <t>getChipTrip</t>
   </si>
   <si>
-    <t>/getChipTrip</t>
-  </si>
-  <si>
     <t>addPayment</t>
   </si>
   <si>
@@ -174,36 +171,9 @@
     <t>/getNearDriver</t>
   </si>
   <si>
-    <t>longitude</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
     <t>double</t>
   </si>
   <si>
-    <t>kinh độ</t>
-  </si>
-  <si>
-    <t>vĩ độ</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>tên tài xế</t>
-  </si>
-  <si>
-    <t>Image</t>
-  </si>
-  <si>
-    <t>Ảnh tài xế</t>
-  </si>
-  <si>
-    <t>1 = gần nhất, 2 = rẻ nhất , 3 = đề cử</t>
-  </si>
-  <si>
     <t>/PromotionController</t>
   </si>
   <si>
@@ -211,6 +181,93 @@
   </si>
   <si>
     <t>/getPromotion</t>
+  </si>
+  <si>
+    <t>/getCheapTrip</t>
+  </si>
+  <si>
+    <t>requestDriver</t>
+  </si>
+  <si>
+    <t>/requestDriver</t>
+  </si>
+  <si>
+    <t>riderId</t>
+  </si>
+  <si>
+    <t>riderLongitude</t>
+  </si>
+  <si>
+    <t>riderLatitude</t>
+  </si>
+  <si>
+    <t>driverId</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>taxi tải, taxi thường</t>
+  </si>
+  <si>
+    <t>paymentType</t>
+  </si>
+  <si>
+    <t>driverName</t>
+  </si>
+  <si>
+    <t>driverImage</t>
+  </si>
+  <si>
+    <t>driverRating</t>
+  </si>
+  <si>
+    <t>openPrice</t>
+  </si>
+  <si>
+    <t>openKm</t>
+  </si>
+  <si>
+    <t>firstKmPrice</t>
+  </si>
+  <si>
+    <t>nextKmPrice</t>
+  </si>
+  <si>
+    <t>firstKm</t>
+  </si>
+  <si>
+    <t>nextKm</t>
+  </si>
+  <si>
+    <t>waitingPrice</t>
+  </si>
+  <si>
+    <t>returnPrice</t>
+  </si>
+  <si>
+    <t>rẻ nhất, gần nhất, tốt nhất.</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>requestId</t>
+  </si>
+  <si>
+    <t>carModel</t>
+  </si>
+  <si>
+    <t>paymentId</t>
+  </si>
+  <si>
+    <t>/updateTrip</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>tripStatus</t>
   </si>
 </sst>
 </file>
@@ -528,9 +585,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -540,7 +595,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -824,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81:D85"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,7 +924,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -881,7 +938,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -891,7 +948,7 @@
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
@@ -901,7 +958,7 @@
       <c r="D5" s="15"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="2"/>
       <c r="C6" s="6"/>
       <c r="D6" s="13"/>
@@ -922,7 +979,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -976,7 +1033,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -990,7 +1047,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1000,7 +1057,7 @@
       <c r="D15" s="15"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
@@ -1010,8 +1067,8 @@
       <c r="D16" s="15"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="23" t="s">
+      <c r="A17" s="23"/>
+      <c r="B17" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1020,8 +1077,8 @@
       <c r="D17" s="15"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="23" t="s">
+      <c r="A18" s="23"/>
+      <c r="B18" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -1030,8 +1087,8 @@
       <c r="D18" s="15"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="23" t="s">
+      <c r="A19" s="23"/>
+      <c r="B19" s="19" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1040,7 +1097,7 @@
       <c r="D19" s="15"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="2"/>
       <c r="C20" s="6"/>
       <c r="D20" s="13"/>
@@ -1061,7 +1118,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -1162,7 +1219,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="19" t="s">
         <v>27</v>
       </c>
       <c r="C33" s="5"/>
@@ -1208,7 +1265,7 @@
         <v>11</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1259,7 +1316,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="21"/>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="19" t="s">
         <v>27</v>
       </c>
       <c r="C44" s="5"/>
@@ -1291,7 +1348,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1299,13 +1356,13 @@
         <v>4</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1324,26 +1381,26 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="21"/>
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="15" t="s">
         <v>41</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="21"/>
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="D52" s="15" t="s">
         <v>44</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1368,7 +1425,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="21"/>
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C55" s="5" t="s">
@@ -1412,13 +1469,13 @@
         <v>4</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1437,245 +1494,687 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="21"/>
-      <c r="B62" s="23" t="s">
-        <v>49</v>
+      <c r="B62" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>52</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D62" s="15"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="21"/>
-      <c r="B63" s="23" t="s">
-        <v>50</v>
+      <c r="B63" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>53</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D63" s="15"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="24"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="13"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D64" s="15"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D65" s="14" t="s">
-        <v>1</v>
-      </c>
+      <c r="A65" s="21"/>
+      <c r="B65" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D65" s="15"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="21"/>
-      <c r="B66" s="23" t="s">
-        <v>54</v>
+      <c r="B66" s="19" t="s">
+        <v>59</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D66" s="15"/>
+        <v>6</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="21"/>
-      <c r="B67" s="23" t="s">
+      <c r="B67" s="19"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="15"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="24"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="13"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="21"/>
-      <c r="B68" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D68" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="21"/>
-      <c r="B69" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D69" s="15" t="s">
-        <v>53</v>
+      <c r="C69" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="21"/>
-      <c r="B70" s="23" t="s">
+      <c r="B70" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="15"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="21"/>
+      <c r="B71" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="15"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="21"/>
+      <c r="B72" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D72" s="15"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="21"/>
+      <c r="B73" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D73" s="15"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="21"/>
+      <c r="B74" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C70" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D70" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="22"/>
-      <c r="B71" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D71" s="18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>61</v>
+      <c r="C74" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D75" s="14" t="s">
-        <v>1</v>
-      </c>
+      <c r="A75" s="21"/>
+      <c r="B75" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D75" s="15"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="21"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="5"/>
+      <c r="B76" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="D76" s="15"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="21"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="5"/>
+      <c r="B77" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="D77" s="15"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="24"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="13"/>
+      <c r="A78" s="21"/>
+      <c r="B78" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D78" s="15"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D79" s="14" t="s">
-        <v>1</v>
-      </c>
+      <c r="A79" s="21"/>
+      <c r="B79" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D79" s="15"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="21"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="5"/>
+      <c r="B80" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="D80" s="15"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="21"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="5"/>
+      <c r="B81" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="D81" s="15"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="21"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="5"/>
+      <c r="B82" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="D82" s="15"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="21"/>
-      <c r="B83" s="23"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="15"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="21"/>
-      <c r="B84" s="23"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="15"/>
-    </row>
-    <row r="85" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="22"/>
-      <c r="B85" s="16"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="18"/>
+    <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="22"/>
+      <c r="B83" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="18"/>
+    </row>
+    <row r="84" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="21"/>
+      <c r="B88" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="15"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="21"/>
+      <c r="B89" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="15"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="21"/>
+      <c r="B90" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="15"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="21"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="15"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="21"/>
+      <c r="B92" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="21"/>
+      <c r="B93" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="15"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="21"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="15"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="24"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="13"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="21"/>
+      <c r="B97" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" s="15"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="21"/>
+      <c r="B98" s="19"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="15"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="21"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="15"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="21"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="15"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="21"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="15"/>
+    </row>
+    <row r="102" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="22"/>
+      <c r="B102" s="16"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="18"/>
+    </row>
+    <row r="103" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D106" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="21"/>
+      <c r="B107" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" s="15"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="21"/>
+      <c r="B108" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" s="15"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="21"/>
+      <c r="B109" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" s="15"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="21"/>
+      <c r="B110" s="19"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="15"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="21"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="15"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="21"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="15"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="21"/>
+      <c r="B113" s="19"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="15"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="24"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="13"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="21"/>
+      <c r="B116" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" s="15"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="21"/>
+      <c r="B117" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" s="15"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="21"/>
+      <c r="B118" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" s="15"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="21"/>
+      <c r="B119" s="19"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="15"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="21"/>
+      <c r="B120" s="19"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="15"/>
+    </row>
+    <row r="121" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="22"/>
+      <c r="B121" s="16"/>
+      <c r="C121" s="17"/>
+      <c r="D121" s="18"/>
+    </row>
+    <row r="123" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D126" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="21"/>
+      <c r="B127" s="19"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="15"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="21"/>
+      <c r="B128" s="19"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="15"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="24"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="13"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D130" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="21"/>
+      <c r="B131" s="19"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="15"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="21"/>
+      <c r="B132" s="19"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="15"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="21"/>
+      <c r="B133" s="19"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="15"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="21"/>
+      <c r="B134" s="19"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="15"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="21"/>
+      <c r="B135" s="19"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="15"/>
+    </row>
+    <row r="136" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="22"/>
+      <c r="B136" s="16"/>
+      <c r="C136" s="17"/>
+      <c r="D136" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A65:A71"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="A79:A85"/>
+  <mergeCells count="18">
+    <mergeCell ref="A106:A114"/>
+    <mergeCell ref="A115:A121"/>
+    <mergeCell ref="A130:A136"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A126:A129"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="A43:A46"/>
     <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A61:A68"/>
+    <mergeCell ref="A69:A83"/>
+    <mergeCell ref="A87:A95"/>
+    <mergeCell ref="A96:A102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1686,8 +2185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1728,7 +2227,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1742,7 +2241,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1752,7 +2251,7 @@
       <c r="D5" s="15"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1762,7 +2261,7 @@
       <c r="D6" s="15"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="2"/>
       <c r="C7" s="6"/>
       <c r="D7" s="13"/>
@@ -1783,7 +2282,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1837,7 +2336,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1851,7 +2350,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1861,7 +2360,7 @@
       <c r="D16" s="15"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
@@ -1871,8 +2370,8 @@
       <c r="D17" s="15"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="23" t="s">
+      <c r="A18" s="23"/>
+      <c r="B18" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -1881,8 +2380,8 @@
       <c r="D18" s="15"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="23" t="s">
+      <c r="A19" s="23"/>
+      <c r="B19" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1891,8 +2390,8 @@
       <c r="D19" s="15"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="23" t="s">
+      <c r="A20" s="23"/>
+      <c r="B20" s="19" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -1901,7 +2400,7 @@
       <c r="D20" s="15"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="2"/>
       <c r="C21" s="6"/>
       <c r="D21" s="13"/>
@@ -1922,7 +2421,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1976,7 +2475,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -1990,19 +2489,19 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
+      <c r="A30" s="23"/>
       <c r="B30" s="1"/>
       <c r="C30" s="5"/>
       <c r="D30" s="15"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="1"/>
       <c r="C31" s="5"/>
       <c r="D31" s="15"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="2"/>
       <c r="C32" s="6"/>
       <c r="D32" s="13"/>
@@ -2023,7 +2522,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="21"/>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="19" t="s">
         <v>27</v>
       </c>
       <c r="C34" s="5"/>
@@ -2073,7 +2572,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -2087,19 +2586,19 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="1"/>
       <c r="C41" s="5"/>
       <c r="D41" s="15"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
+      <c r="A42" s="23"/>
       <c r="B42" s="1"/>
       <c r="C42" s="5"/>
       <c r="D42" s="15"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
+      <c r="A43" s="23"/>
       <c r="B43" s="2"/>
       <c r="C43" s="6"/>
       <c r="D43" s="13"/>
@@ -2120,7 +2619,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="21"/>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="19" t="s">
         <v>27</v>
       </c>
       <c r="C45" s="5" t="s">
